--- a/macfilter_py.xlsx
+++ b/macfilter_py.xlsx
@@ -37,10 +37,10 @@
     <t xml:space="preserve">ZH</t>
   </si>
   <si>
-    <t xml:space="preserve">7c21.0eb1.ebc2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3c51.0e7a.44c2</t>
+    <t xml:space="preserve">7c21.0eb1.bbc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3c51.0e7a.44bb</t>
   </si>
   <si>
     <t xml:space="preserve">SW-POSUSJE-6</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">b0c5.3c31.5002</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.118.9</t>
+    <t xml:space="preserve">192.168.120.9</t>
   </si>
   <si>
     <t xml:space="preserve">POSUSJE-2</t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">b0c5.3c31.5005</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.118.11</t>
+    <t xml:space="preserve">192.168.120.10</t>
   </si>
   <si>
     <t xml:space="preserve">POSUSJE-1</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">b0c5.3c31.5008</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.118.10</t>
+    <t xml:space="preserve">192.168.120.11</t>
   </si>
   <si>
     <t xml:space="preserve">MA5105-WELTPLAST</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">00b7.71fd.b282</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.119.146</t>
+    <t xml:space="preserve">192.168.120.12</t>
   </si>
   <si>
     <t xml:space="preserve">MA5600T-OBILAZNICA_SB</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">00b7.71ce.2d82</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.119.226</t>
+    <t xml:space="preserve">192.168.120.13</t>
   </si>
 </sst>
 </file>
@@ -320,7 +320,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
